--- a/data/bornpowerindex.xlsx
+++ b/data/bornpowerindex.xlsx
@@ -2335,288 +2335,288 @@
     <t>ALA</t>
   </si>
   <si>
+    <t>AAMU</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>ARST</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
     <t>ALB</t>
   </si>
   <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>ARST</t>
-  </si>
-  <si>
-    <t>AUB</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>BAY</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BGSU</t>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>CARK</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>CSU</t>
+  </si>
+  <si>
+    <t>CCSU</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>FAMU</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GASO</t>
+  </si>
+  <si>
+    <t>MORG</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>JVST</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>KSU</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>APSU</t>
+  </si>
+  <si>
+    <t>MRSH</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>MSST</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>MOST</t>
+  </si>
+  <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>NMSU</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>BOIS</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>OKST</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>ORST</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>RUTG</t>
   </si>
   <si>
     <t>SHSU</t>
   </si>
   <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>CARK</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>CSU</t>
-  </si>
-  <si>
-    <t>CCSU</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>FAMU</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>FIU</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>GASO</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>JVST</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>SELA</t>
-  </si>
-  <si>
-    <t>APSU</t>
-  </si>
-  <si>
-    <t>MRSH</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>MSU</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>MSST</t>
-  </si>
-  <si>
-    <t>MOST</t>
-  </si>
-  <si>
-    <t>MIZ</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>NEV</t>
-  </si>
-  <si>
-    <t>INST</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>NMSU</t>
-  </si>
-  <si>
-    <t>SCST</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>NIU</t>
-  </si>
-  <si>
-    <t>UNT</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>BOIS</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>OKST</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>ORE</t>
-  </si>
-  <si>
-    <t>ORST</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>RUTG</t>
+    <t>SDSU</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>USM</t>
   </si>
   <si>
     <t>TXSO</t>
   </si>
   <si>
-    <t>SDSU</t>
-  </si>
-  <si>
-    <t>SJSU</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SIU</t>
-  </si>
-  <si>
-    <t>SUU</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
     <t>USF</t>
   </si>
   <si>
@@ -2632,27 +2632,27 @@
     <t>TENN</t>
   </si>
   <si>
-    <t>TEX</t>
-  </si>
-  <si>
     <t>TA&amp;M</t>
   </si>
   <si>
-    <t>ACU</t>
-  </si>
-  <si>
     <t>TXST</t>
   </si>
   <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
     <t>TTU</t>
   </si>
   <si>
+    <t>TAMC</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
     <t>TOL</t>
   </si>
   <si>
@@ -2668,10 +2668,10 @@
     <t>BUCK</t>
   </si>
   <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>USU</t>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>IDST</t>
   </si>
   <si>
     <t>VAN</t>
@@ -2683,7 +2683,7 @@
     <t>VT</t>
   </si>
   <si>
-    <t>WAKE</t>
+    <t>SAM</t>
   </si>
   <si>
     <t>WASH</t>
@@ -2692,10 +2692,10 @@
     <t>WSU</t>
   </si>
   <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>WMU</t>
+    <t>NWST</t>
+  </si>
+  <si>
+    <t>WIU</t>
   </si>
   <si>
     <t>WVU</t>
@@ -17572,7 +17572,7 @@
         <v>1383</v>
       </c>
       <c r="F637">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -17592,7 +17592,7 @@
         <v>1384</v>
       </c>
       <c r="F638">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -17632,7 +17632,7 @@
         <v>1386</v>
       </c>
       <c r="F640">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -17672,7 +17672,7 @@
         <v>1388</v>
       </c>
       <c r="F642">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -17792,7 +17792,7 @@
         <v>1394</v>
       </c>
       <c r="F648">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -17812,7 +17812,7 @@
         <v>1395</v>
       </c>
       <c r="F649">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -17832,7 +17832,7 @@
         <v>1396</v>
       </c>
       <c r="F650">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -17892,7 +17892,7 @@
         <v>1398</v>
       </c>
       <c r="F653">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -17912,7 +17912,7 @@
         <v>1399</v>
       </c>
       <c r="F654">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -17972,7 +17972,7 @@
         <v>1402</v>
       </c>
       <c r="F657">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -18012,7 +18012,7 @@
         <v>1404</v>
       </c>
       <c r="F659">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -18032,7 +18032,7 @@
         <v>1019</v>
       </c>
       <c r="F660">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -18072,7 +18072,7 @@
         <v>1406</v>
       </c>
       <c r="F662">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -18092,7 +18092,7 @@
         <v>1013</v>
       </c>
       <c r="F663">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -18132,7 +18132,7 @@
         <v>1408</v>
       </c>
       <c r="F665">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -18152,7 +18152,7 @@
         <v>1409</v>
       </c>
       <c r="F666">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -18172,7 +18172,7 @@
         <v>1410</v>
       </c>
       <c r="F667">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -18192,7 +18192,7 @@
         <v>1411</v>
       </c>
       <c r="F668">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -18232,7 +18232,7 @@
         <v>1413</v>
       </c>
       <c r="F670">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -18252,7 +18252,7 @@
         <v>1414</v>
       </c>
       <c r="F671">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -18272,7 +18272,7 @@
         <v>1407</v>
       </c>
       <c r="F672">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -18412,7 +18412,7 @@
         <v>1421</v>
       </c>
       <c r="F679">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -18432,7 +18432,7 @@
         <v>1422</v>
       </c>
       <c r="F680">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -18472,7 +18472,7 @@
         <v>1424</v>
       </c>
       <c r="F682">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -18532,7 +18532,7 @@
         <v>1426</v>
       </c>
       <c r="F685">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -18592,7 +18592,7 @@
         <v>1429</v>
       </c>
       <c r="F688">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -18612,7 +18612,7 @@
         <v>1073</v>
       </c>
       <c r="F689">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -18692,7 +18692,7 @@
         <v>1433</v>
       </c>
       <c r="F693">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -18752,7 +18752,7 @@
         <v>1436</v>
       </c>
       <c r="F696">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -18792,7 +18792,7 @@
         <v>1438</v>
       </c>
       <c r="F698">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -18812,7 +18812,7 @@
         <v>1383</v>
       </c>
       <c r="F699">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -18852,7 +18852,7 @@
         <v>1440</v>
       </c>
       <c r="F701">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -18872,7 +18872,7 @@
         <v>1396</v>
       </c>
       <c r="F702">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -18892,7 +18892,7 @@
         <v>1441</v>
       </c>
       <c r="F703">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -18972,7 +18972,7 @@
         <v>1444</v>
       </c>
       <c r="F707">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -19012,7 +19012,7 @@
         <v>1446</v>
       </c>
       <c r="F709">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -19032,7 +19032,7 @@
         <v>1447</v>
       </c>
       <c r="F710">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -19052,7 +19052,7 @@
         <v>1448</v>
       </c>
       <c r="F711">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -19072,7 +19072,7 @@
         <v>1083</v>
       </c>
       <c r="F712">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -19092,7 +19092,7 @@
         <v>1449</v>
       </c>
       <c r="F713">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -19112,7 +19112,7 @@
         <v>1450</v>
       </c>
       <c r="F714">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -19212,7 +19212,7 @@
         <v>1454</v>
       </c>
       <c r="F719">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -19232,7 +19232,7 @@
         <v>1455</v>
       </c>
       <c r="F720">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -19272,7 +19272,7 @@
         <v>1457</v>
       </c>
       <c r="F722">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -19392,7 +19392,7 @@
         <v>1144</v>
       </c>
       <c r="F728">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="729" spans="1:6">
@@ -19412,7 +19412,7 @@
         <v>1461</v>
       </c>
       <c r="F729">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="730" spans="1:6">
@@ -19432,7 +19432,7 @@
         <v>1380</v>
       </c>
       <c r="F730">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -19452,7 +19452,7 @@
         <v>1462</v>
       </c>
       <c r="F731">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -19472,7 +19472,7 @@
         <v>1463</v>
       </c>
       <c r="F732">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -19492,7 +19492,7 @@
         <v>1464</v>
       </c>
       <c r="F733">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -19512,7 +19512,7 @@
         <v>1430</v>
       </c>
       <c r="F734">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -19552,7 +19552,7 @@
         <v>1466</v>
       </c>
       <c r="F736">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -19652,7 +19652,7 @@
         <v>1470</v>
       </c>
       <c r="F741">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -19672,7 +19672,7 @@
         <v>1471</v>
       </c>
       <c r="F742">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -19692,7 +19692,7 @@
         <v>1430</v>
       </c>
       <c r="F743">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -19712,7 +19712,7 @@
         <v>1472</v>
       </c>
       <c r="F744">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -19732,7 +19732,7 @@
         <v>1473</v>
       </c>
       <c r="F745">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -19752,7 +19752,7 @@
         <v>1474</v>
       </c>
       <c r="F746">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -19772,7 +19772,7 @@
         <v>1454</v>
       </c>
       <c r="F747">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -19892,7 +19892,7 @@
         <v>1443</v>
       </c>
       <c r="F753">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="754" spans="1:6">
@@ -19932,7 +19932,7 @@
         <v>1010</v>
       </c>
       <c r="F755">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="756" spans="1:6">
@@ -19992,7 +19992,7 @@
         <v>1479</v>
       </c>
       <c r="F758">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="759" spans="1:6">
@@ -20012,7 +20012,7 @@
         <v>1480</v>
       </c>
       <c r="F759">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="760" spans="1:6">
@@ -20052,7 +20052,7 @@
         <v>1425</v>
       </c>
       <c r="F761">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="762" spans="1:6">
@@ -20072,7 +20072,7 @@
         <v>1482</v>
       </c>
       <c r="F762">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -20092,7 +20092,7 @@
         <v>1068</v>
       </c>
       <c r="F763">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -20112,7 +20112,7 @@
         <v>1483</v>
       </c>
       <c r="F764">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="765" spans="1:6">

--- a/data/bornpowerindex.xlsx
+++ b/data/bornpowerindex.xlsx
@@ -37,13 +37,13 @@
     <t>APPRENTICE-NEWPORT NEWS</t>
   </si>
   <si>
-    <t>ATLANTIS  -  FLA</t>
+    <t>ATLANTIS - FLA</t>
   </si>
   <si>
     <t>FORT LAUDERDALE</t>
   </si>
   <si>
-    <t>LINCOLN -  CALIFONIA</t>
+    <t>LINCOLN - CALIFONIA</t>
   </si>
   <si>
     <t>NORTH AMERICAN - TEXAS</t>
@@ -79,7 +79,7 @@
     <t>BETHEL-TN.</t>
   </si>
   <si>
-    <t>BLUEFIELD  -  VA</t>
+    <t>BLUEFIELD - VA</t>
   </si>
   <si>
     <t>BRIAR CLIFF</t>
@@ -184,7 +184,7 @@
     <t>LOUISIANA CHRISTIAN</t>
   </si>
   <si>
-    <t>MADONNA  - MICHIGAN</t>
+    <t>MADONNA - MICHIGAN</t>
   </si>
   <si>
     <t>MARIAN - INDIANA</t>
@@ -196,7 +196,7 @@
     <t>McPHERSON</t>
   </si>
   <si>
-    <t>MID-AMERICA  NAZARENE</t>
+    <t>MID-AMERICA NAZARENE</t>
   </si>
   <si>
     <t>MIDLAND - NE</t>
@@ -220,7 +220,7 @@
     <t>MORNINGSIDE</t>
   </si>
   <si>
-    <t xml:space="preserve">MT.  MARTY    S.D. </t>
+    <t xml:space="preserve">MT. MARTY S.D. </t>
   </si>
   <si>
     <t>NORTHWESTERN-IOWA</t>
@@ -229,7 +229,7 @@
     <t>OLIVET NAZARENE</t>
   </si>
   <si>
-    <t>OTTAWA  (AZ)</t>
+    <t>OTTAWA (AZ)</t>
   </si>
   <si>
     <t>OTTAWA-KANSAS</t>
@@ -304,7 +304,7 @@
     <t>TEXAS WESLEYAN</t>
   </si>
   <si>
-    <t>THOMAS  -  GA</t>
+    <t>THOMAS - GA</t>
   </si>
   <si>
     <t>UNION-KY.</t>
@@ -334,7 +334,7 @@
     <t>ABILENE CHRISTIAN</t>
   </si>
   <si>
-    <t>ALABAMA  A&amp;M</t>
+    <t>ALABAMA A&amp;M</t>
   </si>
   <si>
     <t>ALABAMA STATE</t>
@@ -409,7 +409,7 @@
     <t>DELAWARE</t>
   </si>
   <si>
-    <t>DELAWARE  STATE</t>
+    <t>DELAWARE STATE</t>
   </si>
   <si>
     <t>DRAKE</t>
@@ -433,7 +433,7 @@
     <t>ELON</t>
   </si>
   <si>
-    <t>FLORIDA  A&amp;M</t>
+    <t>FLORIDA A&amp;M</t>
   </si>
   <si>
     <t>FORDHAM</t>
@@ -553,7 +553,7 @@
     <t>NORTH ALABAMA</t>
   </si>
   <si>
-    <t>NORTH CAROLINA  A&amp;T</t>
+    <t>NORTH CAROLINA A&amp;T</t>
   </si>
   <si>
     <t>NORTH CAROLINA CENTRAL</t>
@@ -628,7 +628,7 @@
     <t>SOUTH DAKOTA STATE</t>
   </si>
   <si>
-    <t>SOUTH EASTERN  MISSOURI</t>
+    <t>SOUTH EASTERN MISSOURI</t>
   </si>
   <si>
     <t>SOUTHERN ILLINOIS</t>
@@ -724,7 +724,7 @@
     <t>ALDERSON-BROADDUS</t>
   </si>
   <si>
-    <t>ALLEN  (SC)</t>
+    <t>ALLEN (SC)</t>
   </si>
   <si>
     <t>AMERICAN INTERNATIONAL</t>
@@ -994,7 +994,7 @@
     <t>MOREHOUSE COLLEGE</t>
   </si>
   <si>
-    <t>NEBRASKA -  KEARNEY</t>
+    <t>NEBRASKA - KEARNEY</t>
   </si>
   <si>
     <t>NEWBERRY</t>
@@ -1006,7 +1006,7 @@
     <t>NEW MEXICO HIGHLANDS</t>
   </si>
   <si>
-    <t>NO'EASTERN   OKLA ST.</t>
+    <t>NOEASTERN OKLA ST.</t>
   </si>
   <si>
     <t>NORTHERN MICHIGAN</t>
@@ -1084,7 +1084,7 @@
     <t>SO. EAST. OKLAHOMA ST.</t>
   </si>
   <si>
-    <t>SOUTH DAKOTA  TECH</t>
+    <t>SOUTH DAKOTA TECH</t>
   </si>
   <si>
     <t>SOUTHERN ARKANSAS</t>
@@ -1195,7 +1195,7 @@
     <t>WEST VIRGINIA WESLEYAN</t>
   </si>
   <si>
-    <t>WHEELING  UNIVERSITY</t>
+    <t>WHEELING UNIVERSITY</t>
   </si>
   <si>
     <t>WILLIAM JEWELL</t>
@@ -1276,7 +1276,7 @@
     <t>BERRY</t>
   </si>
   <si>
-    <t>BETHANY  -  WV</t>
+    <t>BETHANY - WV</t>
   </si>
   <si>
     <t>BETHEL-MINNESOTA</t>
@@ -1408,7 +1408,7 @@
     <t>DUBUQUE</t>
   </si>
   <si>
-    <t>EASTERN  PA</t>
+    <t>EASTERN PA</t>
   </si>
   <si>
     <t>EAST TEXAS BAPTIST</t>
@@ -1546,7 +1546,7 @@
     <t>KEYSTONE</t>
   </si>
   <si>
-    <t>KING'S COLLEGE</t>
+    <t>KINGS COLLEGE</t>
   </si>
   <si>
     <t>KNOX</t>
@@ -1663,7 +1663,7 @@
     <t>MUSKINGUM</t>
   </si>
   <si>
-    <t>NEBRASKA  WESLEYAN</t>
+    <t>NEBRASKA WESLEYAN</t>
   </si>
   <si>
     <t>NEW JERSEY</t>
@@ -1819,7 +1819,7 @@
     <t xml:space="preserve">UNION COLLEGE-NY </t>
   </si>
   <si>
-    <t>U  O F  NEW ENGLAND</t>
+    <t>U O F NEW ENGLAND</t>
   </si>
   <si>
     <t>URSINUS COLLEGE</t>
@@ -2047,7 +2047,7 @@
     <t>GEORGIA TECH</t>
   </si>
   <si>
-    <t>HAWAI'I</t>
+    <t>HAWAII</t>
   </si>
   <si>
     <t>HOUSTON</t>
@@ -2161,13 +2161,13 @@
     <t>NO. CAROLINA STATE</t>
   </si>
   <si>
-    <t>NORTH  CAROLINA</t>
-  </si>
-  <si>
-    <t>NORTHERN  ILLINOIS</t>
-  </si>
-  <si>
-    <t>NORTH  TEXAS</t>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>NORTHERN ILLINOIS</t>
+  </si>
+  <si>
+    <t>NORTH TEXAS</t>
   </si>
   <si>
     <t>NORTHWESTERN</t>
@@ -2233,7 +2233,7 @@
     <t>SOUTHERN METHODIST</t>
   </si>
   <si>
-    <t>SOUTHERN  MISSISSIPPI</t>
+    <t>SOUTHERN MISSISSIPPI</t>
   </si>
   <si>
     <t>SOUTH FLORIDA</t>
@@ -2266,7 +2266,7 @@
     <t>TEXAS-SAN ANTONIO</t>
   </si>
   <si>
-    <t>TEXAS  STATE-SAN MARCOS</t>
+    <t>TEXAS STATE-SAN MARCOS</t>
   </si>
   <si>
     <t>TEXAS TECH</t>
@@ -2320,7 +2320,7 @@
     <t>WESTERN MICHIGAN</t>
   </si>
   <si>
-    <t>WEST  VIRGINIA</t>
+    <t>WEST VIRGINIA</t>
   </si>
   <si>
     <t>WISCONSIN</t>
@@ -2620,90 +2620,90 @@
     <t>USM</t>
   </si>
   <si>
+    <t>EIU</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>STAN</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>TXST</t>
+  </si>
+  <si>
+    <t>EWU</t>
+  </si>
+  <si>
+    <t>WCU</t>
+  </si>
+  <si>
+    <t>TTU</t>
+  </si>
+  <si>
+    <t>COLG</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>TLSA</t>
+  </si>
+  <si>
+    <t>BUCK</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>USU</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>JKST</t>
+  </si>
+  <si>
+    <t>WKU</t>
+  </si>
+  <si>
     <t>WIU</t>
   </si>
   <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>STAN</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>TEM</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t>HCU</t>
-  </si>
-  <si>
-    <t>TXST</t>
-  </si>
-  <si>
-    <t>EWU</t>
-  </si>
-  <si>
-    <t>WCU</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>COLG</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>TLSA</t>
-  </si>
-  <si>
-    <t>BUCK</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>USU</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>WSU</t>
-  </si>
-  <si>
-    <t>YSU</t>
-  </si>
-  <si>
-    <t>WKU</t>
-  </si>
-  <si>
-    <t>NWST</t>
-  </si>
-  <si>
     <t>WVU</t>
   </si>
   <si>
@@ -2728,7 +2728,7 @@
     <t>DIVISION 3</t>
   </si>
   <si>
-    <t>DIVISION 1  FBS</t>
+    <t>DIVISION 1 FBS</t>
   </si>
   <si>
     <t>5.7</t>
@@ -18298,7 +18298,7 @@
         <v>1417</v>
       </c>
       <c r="F673">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -19058,7 +19058,7 @@
         <v>1450</v>
       </c>
       <c r="F711">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -19078,7 +19078,7 @@
         <v>1085</v>
       </c>
       <c r="F712">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -19098,7 +19098,7 @@
         <v>1451</v>
       </c>
       <c r="F713">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -19538,7 +19538,7 @@
         <v>1467</v>
       </c>
       <c r="F735">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -19758,7 +19758,7 @@
         <v>1476</v>
       </c>
       <c r="F746">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="747" spans="1:6">
@@ -20098,7 +20098,7 @@
         <v>1070</v>
       </c>
       <c r="F763">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -20118,7 +20118,7 @@
         <v>1485</v>
       </c>
       <c r="F764">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="765" spans="1:6">
